--- a/(google-cloud-platform)_Data.xlsx
+++ b/(google-cloud-platform)_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="1217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="1217">
   <si>
     <t>Website</t>
   </si>
@@ -3475,21 +3475,21 @@
     <t>Michael EllisonTim LeeMichael Ellison on LinkedIn: CodePathMichael Ellison's PostGoing to SXSW? Join CodePath CEO and Co</t>
   </si>
   <si>
+    <t>Jeffrey H Ehlers</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/jeffrey-h-ehlers-756ba47</t>
   </si>
   <si>
-    <t>Jeffrey H Ehlers</t>
-  </si>
-  <si>
     <t>Dev IttycheriaLeadershipManagement Team</t>
   </si>
   <si>
+    <t>Marcus Oden, P.E.</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/marcuskoden</t>
   </si>
   <si>
-    <t>Marcus Oden, P.E.</t>
-  </si>
-  <si>
     <t>Peter LilleyPeter Lilley's PostInstaclustrSramana Mitra</t>
   </si>
   <si>
@@ -3508,42 +3508,42 @@
     <t>www.changehealthcare.com</t>
   </si>
   <si>
+    <t>Neil de CrescenzoNeil de Crescenzo's Post</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/neildecrescenzo</t>
   </si>
   <si>
-    <t>Neil de CrescenzoNeil de Crescenzo's Post</t>
-  </si>
-  <si>
     <t>www.citrix.com</t>
   </si>
   <si>
+    <t>Samer Farhat</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/samer-farhat-51b26710#:~:text=Samer%20Farhat%20%2D%20CEO%20%2D%20Citrix%20Co%20%7C%20LinkedIn</t>
   </si>
   <si>
-    <t>Samer Farhat</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/schowe#:~:text=Scott%20Howe%20%2D%20Chief%20Executive%20Officer%20%2D%20LiveRamp%20%7C%20LinkedIn</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/braden-ream#:~:text=Braden%20Ream%20%2D%20CEO%20%2D%20Voiceflow%20%7C%20LinkedIn</t>
   </si>
   <si>
+    <t>Jon Fortt's Post</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/posts/jonfortt_i-speak-with-okta-cofounder-and-ceo-todd-activity-6864938550106972160-MCtY</t>
   </si>
   <si>
-    <t>Jon Fortt's Post</t>
-  </si>
-  <si>
     <t>Sam ZaidGetaroundElliot Kroo</t>
   </si>
   <si>
+    <t>Dan StreetmanCourtney glenn</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/danstreetman</t>
   </si>
   <si>
-    <t>Dan StreetmanCourtney glenn</t>
-  </si>
-  <si>
     <t>Thomas WalleUnacastThomas Walle's PostThomas Walle</t>
   </si>
   <si>
@@ -3553,21 +3553,21 @@
     <t>Andy PalmerTamrAndy Palmer posted on LinkedInAndy Palmer's PostAndy Palmer</t>
   </si>
   <si>
+    <t>WeboramaMykim Chikli</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/company/weborama</t>
   </si>
   <si>
-    <t>WeboramaMykim Chikli</t>
-  </si>
-  <si>
     <t>Genbook</t>
   </si>
   <si>
+    <t>NokNokNok NokOren FarageTimmy Wassouf</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/company/noknok-app</t>
   </si>
   <si>
-    <t>NokNokNok NokOren FarageTimmy Wassouf</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/kaitlyn-claire-albertoli</t>
   </si>
   <si>
@@ -3592,45 +3592,45 @@
     <t>www.sofi.com</t>
   </si>
   <si>
+    <t>Anthony Noto</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/anthonynoto</t>
   </si>
   <si>
-    <t>Anthony Noto</t>
-  </si>
-  <si>
     <t>Saurabh LadhaSaurabh Ladha's PostDoxelReid Senescu's PostDoxel AI OverviewSaurabh Ladha</t>
   </si>
   <si>
     <t>Niraj ShahWayfairChristophe Charpentier</t>
   </si>
   <si>
+    <t>Justin Antonipillai</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/justin-antonipillai</t>
   </si>
   <si>
-    <t>Justin Antonipillai</t>
-  </si>
-  <si>
     <t>Ted ElliottTed Elliott's Post</t>
   </si>
   <si>
     <t>https://sg.linkedin.com/in/oliver-tan-277b0127#:~:text=Oliver%20Tan%20%2D%20CEO%20%26%20Co%2D,AI%20for%20Visual%20Commerce%20%7C%20LinkedIn</t>
   </si>
   <si>
+    <t>Paul PowersPhysnaPaul Powers' Postapis #manufacture #3dscan</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/techlab</t>
   </si>
   <si>
-    <t>Paul PowersPhysnaPaul Powers' Postapis #manufacture #3dscan</t>
-  </si>
-  <si>
     <t>John Riccitiello</t>
   </si>
   <si>
+    <t>John Van Siclen</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/john-van-siclen-b992b011#:~:text=John%20Van%20Siclen%20%2D%20CEO%20%2D%20dynaTrace%20Software%20%7C%20LinkedIn</t>
   </si>
   <si>
-    <t>John Van Siclen</t>
-  </si>
-  <si>
     <t>Erica BresciaBitnamiErica Brescia on LinkedIn: VMware to acquire BitnamiDaniel Lopez Ridruejo's PostDaniel Lopez Ridruejo</t>
   </si>
   <si>
@@ -3640,31 +3640,31 @@
     <t>Gleb PolyakovMichael Grinich</t>
   </si>
   <si>
+    <t>Relativity Welcomes Phil Saunders as CEO | 230 commentsStephen Coleman</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/posts/philsaunders1_relativity-welcomes-phil-saunders-as-ceo-activity-6999049769012658177-iNGn?trk=public_profile_share_view</t>
   </si>
   <si>
-    <t>Relativity Welcomes Phil Saunders as CEO | 230 commentsStephen Coleman</t>
-  </si>
-  <si>
     <t>Mike MassaroBehindTheScreen with Flywire CEO Mike MassaroJacob Isaac</t>
   </si>
   <si>
+    <t>Jessica Snyder</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/jessica-snyder-73155737</t>
   </si>
   <si>
-    <t>Jessica Snyder</t>
-  </si>
-  <si>
     <t>Fayez MohamoodSteven Burke on LinkedIn: EY Announces Bluecore CEO ...Raj Mohan</t>
   </si>
   <si>
     <t>www.chef.io</t>
   </si>
   <si>
+    <t>Cameron Bevan</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/cameron-bevan-8a6922237</t>
-  </si>
-  <si>
-    <t>Cameron Bevan</t>
   </si>
 </sst>
 </file>
@@ -4656,10 +4656,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D575"/>
+  <dimension ref="A1:D606"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A591" workbookViewId="0">
+      <selection activeCell="B611" sqref="B611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -9185,139 +9185,128 @@
       </c>
       <c r="D407" s="3"/>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:3">
       <c r="A408" t="s">
         <v>944</v>
       </c>
       <c r="B408" t="s">
+        <v>945</v>
+      </c>
+      <c r="C408" t="s">
         <v>946</v>
       </c>
-      <c r="C408" t="s">
-        <v>945</v>
-      </c>
-      <c r="D408" s="3"/>
-    </row>
-    <row r="409" spans="1:4">
+    </row>
+    <row r="409" spans="1:3">
       <c r="A409" t="s">
         <v>983</v>
       </c>
       <c r="B409" t="s">
+        <v>984</v>
+      </c>
+      <c r="C409" t="s">
         <v>1151</v>
       </c>
-      <c r="C409" t="s">
-        <v>984</v>
-      </c>
-      <c r="D409" s="3"/>
-    </row>
-    <row r="410" spans="1:4">
+    </row>
+    <row r="410" spans="1:3">
       <c r="A410" t="s">
         <v>763</v>
       </c>
       <c r="B410" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C410" t="s">
         <v>765</v>
       </c>
-      <c r="C410" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D410" s="3"/>
-    </row>
-    <row r="411" spans="1:4">
+    </row>
+    <row r="411" spans="1:3">
       <c r="A411" t="s">
         <v>1048</v>
       </c>
       <c r="B411" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C411" t="s">
         <v>1050</v>
       </c>
-      <c r="C411" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D411" s="3"/>
-    </row>
-    <row r="412" spans="1:4">
+    </row>
+    <row r="412" spans="1:3">
       <c r="A412" t="s">
         <v>1038</v>
       </c>
       <c r="B412" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C412" t="s">
         <v>1040</v>
       </c>
-      <c r="C412" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D412" s="3"/>
-    </row>
-    <row r="413" spans="1:4">
+    </row>
+    <row r="413" spans="1:3">
       <c r="A413" t="s">
         <v>850</v>
       </c>
       <c r="B413" t="s">
+        <v>851</v>
+      </c>
+      <c r="C413" t="s">
         <v>852</v>
       </c>
-      <c r="C413" t="s">
-        <v>851</v>
-      </c>
-      <c r="D413" s="3"/>
-    </row>
-    <row r="414" spans="1:4">
+    </row>
+    <row r="414" spans="1:3">
       <c r="A414" t="s">
         <v>87</v>
       </c>
       <c r="B414" t="s">
+        <v>88</v>
+      </c>
+      <c r="C414" t="s">
         <v>89</v>
       </c>
-      <c r="C414" t="s">
-        <v>88</v>
-      </c>
-      <c r="D414" s="3"/>
-    </row>
-    <row r="415" spans="1:4">
+    </row>
+    <row r="415" spans="1:3">
       <c r="A415" t="s">
         <v>733</v>
       </c>
       <c r="B415" t="s">
+        <v>734</v>
+      </c>
+      <c r="C415" t="s">
         <v>735</v>
       </c>
-      <c r="C415" t="s">
-        <v>734</v>
-      </c>
-      <c r="D415" s="3"/>
-    </row>
-    <row r="416" spans="1:4">
+    </row>
+    <row r="416" spans="1:3">
       <c r="A416" t="s">
         <v>618</v>
       </c>
       <c r="B416" t="s">
+        <v>619</v>
+      </c>
+      <c r="C416" t="s">
         <v>620</v>
       </c>
-      <c r="C416" t="s">
-        <v>619</v>
-      </c>
-      <c r="D416" s="3"/>
-    </row>
-    <row r="417" spans="1:4">
+    </row>
+    <row r="417" spans="1:3">
       <c r="A417" t="s">
         <v>1066</v>
       </c>
       <c r="B417" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C417" t="s">
         <v>1068</v>
       </c>
-      <c r="C417" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D417" s="3"/>
-    </row>
-    <row r="418" spans="1:4">
+    </row>
+    <row r="418" spans="1:3">
       <c r="A418" t="s">
         <v>664</v>
       </c>
       <c r="B418" t="s">
+        <v>665</v>
+      </c>
+      <c r="C418" t="s">
         <v>666</v>
       </c>
-      <c r="C418" t="s">
-        <v>665</v>
-      </c>
-      <c r="D418" s="3"/>
-    </row>
-    <row r="419" spans="1:4">
+    </row>
+    <row r="419" spans="1:3">
       <c r="A419" t="s">
         <v>883</v>
       </c>
@@ -9327,45 +9316,41 @@
       <c r="C419" t="s">
         <v>1154</v>
       </c>
-      <c r="D419" s="3"/>
-    </row>
-    <row r="420" spans="1:4">
+    </row>
+    <row r="420" spans="1:3">
       <c r="A420" t="s">
         <v>363</v>
       </c>
       <c r="B420" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C420" t="s">
         <v>365</v>
       </c>
-      <c r="C420" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D420" s="3"/>
-    </row>
-    <row r="421" spans="1:4">
+    </row>
+    <row r="421" spans="1:3">
       <c r="A421" t="s">
         <v>709</v>
       </c>
       <c r="B421" t="s">
+        <v>710</v>
+      </c>
+      <c r="C421" t="s">
         <v>711</v>
       </c>
-      <c r="C421" t="s">
-        <v>710</v>
-      </c>
-      <c r="D421" s="3"/>
-    </row>
-    <row r="422" spans="1:4">
+    </row>
+    <row r="422" spans="1:3">
       <c r="A422" t="s">
         <v>853</v>
       </c>
       <c r="B422" t="s">
+        <v>854</v>
+      </c>
+      <c r="C422" t="s">
         <v>855</v>
       </c>
-      <c r="C422" t="s">
-        <v>854</v>
-      </c>
-      <c r="D422" s="3"/>
-    </row>
-    <row r="423" spans="1:4">
+    </row>
+    <row r="423" spans="1:3">
       <c r="A423" t="s">
         <v>1001</v>
       </c>
@@ -9375,141 +9360,129 @@
       <c r="C423" t="s">
         <v>1157</v>
       </c>
-      <c r="D423" s="3"/>
-    </row>
-    <row r="424" spans="1:4">
+    </row>
+    <row r="424" spans="1:3">
       <c r="A424" t="s">
         <v>84</v>
       </c>
       <c r="B424" t="s">
+        <v>85</v>
+      </c>
+      <c r="C424" t="s">
         <v>86</v>
       </c>
-      <c r="C424" t="s">
-        <v>85</v>
-      </c>
-      <c r="D424" s="3"/>
-    </row>
-    <row r="425" spans="1:4">
+    </row>
+    <row r="425" spans="1:3">
       <c r="A425" t="s">
         <v>45</v>
       </c>
       <c r="B425" t="s">
+        <v>46</v>
+      </c>
+      <c r="C425" t="s">
         <v>47</v>
       </c>
-      <c r="C425" t="s">
-        <v>46</v>
-      </c>
-      <c r="D425" s="3"/>
-    </row>
-    <row r="426" spans="1:4">
+    </row>
+    <row r="426" spans="1:3">
       <c r="A426" t="s">
         <v>754</v>
       </c>
       <c r="B426" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C426" t="s">
         <v>756</v>
       </c>
-      <c r="C426" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D426" s="3"/>
-    </row>
-    <row r="427" spans="1:4">
+    </row>
+    <row r="427" spans="1:3">
       <c r="A427" t="s">
         <v>42</v>
       </c>
       <c r="B427" t="s">
+        <v>43</v>
+      </c>
+      <c r="C427" t="s">
         <v>1159</v>
       </c>
-      <c r="C427" t="s">
-        <v>43</v>
-      </c>
-      <c r="D427" s="3"/>
-    </row>
-    <row r="428" spans="1:4">
+    </row>
+    <row r="428" spans="1:3">
       <c r="A428" t="s">
         <v>345</v>
       </c>
-      <c r="B428" s="4" t="s">
+      <c r="B428" t="s">
+        <v>346</v>
+      </c>
+      <c r="C428" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C428" t="s">
-        <v>346</v>
-      </c>
-      <c r="D428" s="3"/>
-    </row>
-    <row r="429" spans="1:4">
+    </row>
+    <row r="429" spans="1:3">
       <c r="A429" t="s">
         <v>923</v>
       </c>
       <c r="B429" t="s">
+        <v>924</v>
+      </c>
+      <c r="C429" t="s">
         <v>925</v>
       </c>
-      <c r="C429" t="s">
-        <v>924</v>
-      </c>
-      <c r="D429" s="3"/>
-    </row>
-    <row r="430" spans="1:4">
+    </row>
+    <row r="430" spans="1:3">
       <c r="A430" t="s">
         <v>194</v>
       </c>
       <c r="B430" t="s">
+        <v>195</v>
+      </c>
+      <c r="C430" t="s">
         <v>1160</v>
       </c>
-      <c r="C430" t="s">
-        <v>195</v>
-      </c>
-      <c r="D430" s="3"/>
-    </row>
-    <row r="431" spans="1:4">
+    </row>
+    <row r="431" spans="1:3">
       <c r="A431" t="s">
         <v>90</v>
       </c>
       <c r="B431" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C431" t="s">
         <v>92</v>
       </c>
-      <c r="C431" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D431" s="3"/>
-    </row>
-    <row r="432" spans="1:4">
+    </row>
+    <row r="432" spans="1:3">
       <c r="A432" t="s">
         <v>1041</v>
       </c>
       <c r="B432" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C432" t="s">
         <v>1043</v>
       </c>
-      <c r="C432" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D432" s="3"/>
-    </row>
-    <row r="433" spans="1:4">
+    </row>
+    <row r="433" spans="1:3">
       <c r="A433" t="s">
         <v>889</v>
       </c>
       <c r="B433" t="s">
+        <v>890</v>
+      </c>
+      <c r="C433" t="s">
         <v>891</v>
       </c>
-      <c r="C433" t="s">
-        <v>890</v>
-      </c>
-      <c r="D433" s="3"/>
-    </row>
-    <row r="434" spans="1:4">
+    </row>
+    <row r="434" spans="1:3">
       <c r="A434" t="s">
         <v>112</v>
       </c>
       <c r="B434" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C434" t="s">
         <v>114</v>
       </c>
-      <c r="C434" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D434" s="3"/>
-    </row>
-    <row r="435" spans="1:4">
+    </row>
+    <row r="435" spans="1:3">
       <c r="A435" t="s">
         <v>1163</v>
       </c>
@@ -9519,9 +9492,8 @@
       <c r="C435" t="s">
         <v>1165</v>
       </c>
-      <c r="D435" s="3"/>
-    </row>
-    <row r="436" spans="1:4">
+    </row>
+    <row r="436" spans="1:3">
       <c r="A436" t="s">
         <v>1166</v>
       </c>
@@ -9531,129 +9503,118 @@
       <c r="C436" t="s">
         <v>1168</v>
       </c>
-      <c r="D436" s="3"/>
-    </row>
-    <row r="437" spans="1:4">
+    </row>
+    <row r="437" spans="1:3">
       <c r="A437" t="s">
         <v>868</v>
       </c>
       <c r="B437" t="s">
+        <v>869</v>
+      </c>
+      <c r="C437" t="s">
         <v>870</v>
       </c>
-      <c r="C437" t="s">
-        <v>869</v>
-      </c>
-      <c r="D437" s="3"/>
-    </row>
-    <row r="438" spans="1:4">
+    </row>
+    <row r="438" spans="1:3">
       <c r="A438" t="s">
         <v>233</v>
       </c>
       <c r="B438" t="s">
+        <v>234</v>
+      </c>
+      <c r="C438" t="s">
         <v>1169</v>
       </c>
-      <c r="C438" t="s">
-        <v>234</v>
-      </c>
-      <c r="D438" s="3"/>
-    </row>
-    <row r="439" spans="1:4">
+    </row>
+    <row r="439" spans="1:3">
       <c r="A439" t="s">
         <v>396</v>
       </c>
       <c r="B439" t="s">
+        <v>397</v>
+      </c>
+      <c r="C439" t="s">
         <v>398</v>
       </c>
-      <c r="C439" t="s">
-        <v>397</v>
-      </c>
-      <c r="D439" s="3"/>
-    </row>
-    <row r="440" spans="1:4">
+    </row>
+    <row r="440" spans="1:3">
       <c r="A440" t="s">
         <v>636</v>
       </c>
       <c r="B440" t="s">
+        <v>637</v>
+      </c>
+      <c r="C440" t="s">
         <v>638</v>
       </c>
-      <c r="C440" t="s">
-        <v>637</v>
-      </c>
-      <c r="D440" s="3"/>
-    </row>
-    <row r="441" spans="1:4">
+    </row>
+    <row r="441" spans="1:3">
       <c r="A441" t="s">
         <v>182</v>
       </c>
       <c r="B441" t="s">
+        <v>183</v>
+      </c>
+      <c r="C441" t="s">
         <v>184</v>
       </c>
-      <c r="C441" t="s">
-        <v>183</v>
-      </c>
-      <c r="D441" s="3"/>
-    </row>
-    <row r="442" spans="1:4">
+    </row>
+    <row r="442" spans="1:3">
       <c r="A442" t="s">
         <v>468</v>
       </c>
       <c r="B442" t="s">
+        <v>469</v>
+      </c>
+      <c r="C442" t="s">
         <v>1170</v>
       </c>
-      <c r="C442" t="s">
-        <v>469</v>
-      </c>
-      <c r="D442" s="3"/>
-    </row>
-    <row r="443" spans="1:4">
+    </row>
+    <row r="443" spans="1:3">
       <c r="A443" s="2" t="s">
         <v>826</v>
       </c>
       <c r="B443" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C443" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="C443" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="D443" s="3"/>
-    </row>
-    <row r="444" spans="1:4">
+    </row>
+    <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B444" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C444" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C444" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D444" s="3"/>
-    </row>
-    <row r="445" spans="1:4">
+    </row>
+    <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
         <v>718</v>
       </c>
       <c r="B445" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C445" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="C445" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="D445" s="3"/>
-    </row>
-    <row r="446" spans="1:4">
+    </row>
+    <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
         <v>269</v>
       </c>
       <c r="B446" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C446" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C446" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D446" s="3"/>
-    </row>
-    <row r="447" spans="1:4">
+    </row>
+    <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
         <v>603</v>
       </c>
@@ -9663,81 +9624,74 @@
       <c r="C447" s="2" t="s">
         <v>1172</v>
       </c>
-      <c r="D447" s="3"/>
-    </row>
-    <row r="448" spans="1:4">
+    </row>
+    <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
         <v>901</v>
       </c>
       <c r="B448" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="C448" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="C448" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="D448" s="3"/>
-    </row>
-    <row r="449" spans="1:4">
+    </row>
+    <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
         <v>486</v>
       </c>
       <c r="B449" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C449" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C449" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="D449" s="3"/>
-    </row>
-    <row r="450" spans="1:4">
+    </row>
+    <row r="450" spans="1:3">
       <c r="A450" s="2" t="s">
         <v>1143</v>
       </c>
       <c r="B450" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C450" s="2" t="s">
         <v>1145</v>
       </c>
-      <c r="C450" s="2" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D450" s="3"/>
-    </row>
-    <row r="451" spans="1:4">
+    </row>
+    <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
         <v>971</v>
       </c>
       <c r="B451" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C451" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="C451" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="D451" s="3"/>
-    </row>
-    <row r="452" spans="1:4">
+    </row>
+    <row r="452" spans="1:3">
       <c r="A452" s="2" t="s">
         <v>1134</v>
       </c>
       <c r="B452" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C452" s="2" t="s">
         <v>1136</v>
       </c>
-      <c r="C452" s="2" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D452" s="3"/>
-    </row>
-    <row r="453" spans="1:4">
+    </row>
+    <row r="453" spans="1:3">
       <c r="A453" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B453" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C453" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C453" s="2" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D453" s="3"/>
-    </row>
-    <row r="454" spans="1:4">
+    </row>
+    <row r="454" spans="1:3">
       <c r="A454" s="2" t="s">
         <v>121</v>
       </c>
@@ -9747,273 +9701,250 @@
       <c r="C454" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="D454" s="3"/>
-    </row>
-    <row r="455" spans="1:4">
+    </row>
+    <row r="455" spans="1:3">
       <c r="A455" s="2" t="s">
         <v>962</v>
       </c>
       <c r="B455" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="C455" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="C455" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="D455" s="3"/>
-    </row>
-    <row r="456" spans="1:4">
+    </row>
+    <row r="456" spans="1:3">
       <c r="A456" s="2" t="s">
         <v>745</v>
       </c>
       <c r="B456" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C456" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="C456" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="D456" s="3"/>
-    </row>
-    <row r="457" spans="1:4">
+    </row>
+    <row r="457" spans="1:3">
       <c r="A457" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B457" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C457" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C457" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D457" s="3"/>
-    </row>
-    <row r="458" spans="1:4">
+    </row>
+    <row r="458" spans="1:3">
       <c r="A458" s="2" t="s">
         <v>323</v>
       </c>
       <c r="B458" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C458" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C458" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D458" s="3"/>
-    </row>
-    <row r="459" spans="1:4">
+    </row>
+    <row r="459" spans="1:3">
       <c r="A459" s="2" t="s">
         <v>1069</v>
       </c>
       <c r="B459" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C459" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="C459" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D459" s="3"/>
-    </row>
-    <row r="460" spans="1:4">
+    </row>
+    <row r="460" spans="1:3">
       <c r="A460" s="2" t="s">
         <v>615</v>
       </c>
       <c r="B460" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C460" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="C460" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="D460" s="3"/>
-    </row>
-    <row r="461" spans="1:4">
+    </row>
+    <row r="461" spans="1:3">
       <c r="A461" s="2" t="s">
         <v>441</v>
       </c>
       <c r="B461" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C461" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="C461" s="2" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D461" s="3"/>
-    </row>
-    <row r="462" spans="1:4">
+    </row>
+    <row r="462" spans="1:3">
       <c r="A462" s="2" t="s">
         <v>1007</v>
       </c>
       <c r="B462" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C462" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="C462" s="2" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D462" s="3"/>
-    </row>
-    <row r="463" spans="1:4">
+    </row>
+    <row r="463" spans="1:3">
       <c r="A463" s="2" t="s">
         <v>206</v>
       </c>
       <c r="B463" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C463" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C463" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D463" s="3"/>
-    </row>
-    <row r="464" spans="1:4">
+    </row>
+    <row r="464" spans="1:3">
       <c r="A464" s="2" t="s">
         <v>703</v>
       </c>
       <c r="B464" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C464" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="C464" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="D464" s="3"/>
-    </row>
-    <row r="465" spans="1:4">
+    </row>
+    <row r="465" spans="1:3">
       <c r="A465" s="2" t="s">
         <v>892</v>
       </c>
       <c r="B465" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C465" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="C465" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="D465" s="3"/>
-    </row>
-    <row r="466" spans="1:4">
+    </row>
+    <row r="466" spans="1:3">
       <c r="A466" s="2" t="s">
         <v>627</v>
       </c>
       <c r="B466" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C466" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="C466" s="2" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D466" s="3"/>
-    </row>
-    <row r="467" spans="1:4">
+    </row>
+    <row r="467" spans="1:3">
       <c r="A467" s="2" t="s">
         <v>995</v>
       </c>
       <c r="B467" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C467" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="C467" s="2" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D467" s="3"/>
-    </row>
-    <row r="468" spans="1:4">
+    </row>
+    <row r="468" spans="1:3">
       <c r="A468" s="2" t="s">
         <v>904</v>
       </c>
       <c r="B468" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="C468" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="C468" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="D468" s="3"/>
-    </row>
-    <row r="469" spans="1:4">
+    </row>
+    <row r="469" spans="1:3">
       <c r="A469" s="2" t="s">
         <v>682</v>
       </c>
       <c r="B469" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C469" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="C469" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="D469" s="3"/>
-    </row>
-    <row r="470" spans="1:4">
+    </row>
+    <row r="470" spans="1:3">
       <c r="A470" s="2" t="s">
         <v>790</v>
       </c>
       <c r="B470" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C470" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="C470" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="D470" s="3"/>
-    </row>
-    <row r="471" spans="1:4">
+    </row>
+    <row r="471" spans="1:3">
       <c r="A471" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B471" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C471" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C471" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D471" s="3"/>
-    </row>
-    <row r="472" spans="1:4">
+    </row>
+    <row r="472" spans="1:3">
       <c r="A472" s="2" t="s">
         <v>336</v>
       </c>
       <c r="B472" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C472" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C472" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D472" s="3"/>
-    </row>
-    <row r="473" spans="1:4">
+    </row>
+    <row r="473" spans="1:3">
       <c r="A473" s="2" t="s">
         <v>546</v>
       </c>
       <c r="B473" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C473" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C473" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="D473" s="3"/>
-    </row>
-    <row r="474" spans="1:4">
+    </row>
+    <row r="474" spans="1:3">
       <c r="A474" s="2" t="s">
         <v>516</v>
       </c>
       <c r="B474" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C474" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="C474" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="D474" s="3"/>
-    </row>
-    <row r="475" spans="1:4">
+    </row>
+    <row r="475" spans="1:3">
       <c r="A475" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B475" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C475" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C475" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D475" s="3"/>
-    </row>
-    <row r="476" spans="1:4">
+    </row>
+    <row r="476" spans="1:3">
       <c r="A476" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B476" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C476" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C476" s="2" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D476" s="3"/>
-    </row>
-    <row r="477" spans="1:4">
+    </row>
+    <row r="477" spans="1:3">
       <c r="A477" s="2" t="s">
         <v>435</v>
       </c>
@@ -10023,45 +9954,41 @@
       <c r="C477" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="D477" s="3"/>
-    </row>
-    <row r="478" spans="1:4">
+    </row>
+    <row r="478" spans="1:3">
       <c r="A478" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B478" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C478" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C478" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D478" s="3"/>
-    </row>
-    <row r="479" spans="1:4">
+    </row>
+    <row r="479" spans="1:3">
       <c r="A479" s="2" t="s">
         <v>727</v>
       </c>
       <c r="B479" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C479" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="C479" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="D479" s="3"/>
-    </row>
-    <row r="480" spans="1:4">
+    </row>
+    <row r="480" spans="1:3">
       <c r="A480" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B480" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C480" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C480" s="2" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D480" s="3"/>
-    </row>
-    <row r="481" spans="1:4">
+    </row>
+    <row r="481" spans="1:3">
       <c r="A481" s="2" t="s">
         <v>510</v>
       </c>
@@ -10071,381 +9998,349 @@
       <c r="C481" s="2" t="s">
         <v>1183</v>
       </c>
-      <c r="D481" s="3"/>
-    </row>
-    <row r="482" spans="1:4">
+    </row>
+    <row r="482" spans="1:3">
       <c r="A482" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B482" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C482" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C482" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D482" s="3"/>
-    </row>
-    <row r="483" spans="1:4">
+    </row>
+    <row r="483" spans="1:3">
       <c r="A483" s="2" t="s">
         <v>330</v>
       </c>
       <c r="B483" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C483" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C483" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D483" s="3"/>
-    </row>
-    <row r="484" spans="1:4">
+    </row>
+    <row r="484" spans="1:3">
       <c r="A484" s="2" t="s">
         <v>624</v>
       </c>
       <c r="B484" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C484" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="C484" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="D484" s="3"/>
-    </row>
-    <row r="485" spans="1:4">
+    </row>
+    <row r="485" spans="1:3">
       <c r="A485" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B485" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C485" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C485" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D485" s="3"/>
-    </row>
-    <row r="486" spans="1:4">
+    </row>
+    <row r="486" spans="1:3">
       <c r="A486" s="2" t="s">
         <v>366</v>
       </c>
       <c r="B486" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C486" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C486" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D486" s="3"/>
-    </row>
-    <row r="487" spans="1:4">
+    </row>
+    <row r="487" spans="1:3">
       <c r="A487" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B487" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C487" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C487" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D487" s="3"/>
-    </row>
-    <row r="488" spans="1:4">
+    </row>
+    <row r="488" spans="1:3">
       <c r="A488" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B488" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C488" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C488" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D488" s="3"/>
-    </row>
-    <row r="489" spans="1:4">
+    </row>
+    <row r="489" spans="1:3">
       <c r="A489" s="2" t="s">
         <v>645</v>
       </c>
       <c r="B489" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C489" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C489" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D489" s="3"/>
-    </row>
-    <row r="490" spans="1:4">
+    </row>
+    <row r="490" spans="1:3">
       <c r="A490" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B490" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C490" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C490" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D490" s="3"/>
-    </row>
-    <row r="491" spans="1:4">
+    </row>
+    <row r="491" spans="1:3">
       <c r="A491" s="2" t="s">
         <v>296</v>
       </c>
       <c r="B491" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C491" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C491" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D491" s="3"/>
-    </row>
-    <row r="492" spans="1:4">
+    </row>
+    <row r="492" spans="1:3">
       <c r="A492" s="2" t="s">
         <v>408</v>
       </c>
       <c r="B492" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C492" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C492" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="D492" s="3"/>
-    </row>
-    <row r="493" spans="1:4">
+    </row>
+    <row r="493" spans="1:3">
       <c r="A493" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B493" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C493" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C493" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D493" s="3"/>
-    </row>
-    <row r="494" spans="1:4">
+    </row>
+    <row r="494" spans="1:3">
       <c r="A494" s="2" t="s">
         <v>823</v>
       </c>
       <c r="B494" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C494" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="C494" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="D494" s="3"/>
-    </row>
-    <row r="495" spans="1:4">
+    </row>
+    <row r="495" spans="1:3">
       <c r="A495" s="2" t="s">
         <v>348</v>
       </c>
       <c r="B495" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C495" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C495" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D495" s="3"/>
-    </row>
-    <row r="496" spans="1:4">
+    </row>
+    <row r="496" spans="1:3">
       <c r="A496" s="2" t="s">
         <v>760</v>
       </c>
       <c r="B496" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C496" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="C496" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="D496" s="3"/>
-    </row>
-    <row r="497" spans="1:4">
+    </row>
+    <row r="497" spans="1:3">
       <c r="A497" s="2" t="s">
         <v>1115</v>
       </c>
       <c r="B497" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C497" s="2" t="s">
         <v>1117</v>
       </c>
-      <c r="C497" s="2" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D497" s="3"/>
-    </row>
-    <row r="498" spans="1:4">
+    </row>
+    <row r="498" spans="1:3">
       <c r="A498" s="2" t="s">
         <v>354</v>
       </c>
       <c r="B498" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C498" s="2" t="s">
         <v>1184</v>
       </c>
-      <c r="C498" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D498" s="3"/>
-    </row>
-    <row r="499" spans="1:4">
+    </row>
+    <row r="499" spans="1:3">
       <c r="A499" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B499" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C499" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C499" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D499" s="3"/>
-    </row>
-    <row r="500" spans="1:4">
+    </row>
+    <row r="500" spans="1:3">
       <c r="A500" s="2" t="s">
         <v>576</v>
       </c>
       <c r="B500" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C500" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C500" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="D500" s="3"/>
-    </row>
-    <row r="501" spans="1:4">
+    </row>
+    <row r="501" spans="1:3">
       <c r="A501" s="2" t="s">
         <v>387</v>
       </c>
       <c r="B501" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C501" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C501" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D501" s="3"/>
-    </row>
-    <row r="502" spans="1:4">
+    </row>
+    <row r="502" spans="1:3">
       <c r="A502" s="2" t="s">
         <v>820</v>
       </c>
       <c r="B502" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C502" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="C502" s="2" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D502" s="3"/>
-    </row>
-    <row r="503" spans="1:4">
+    </row>
+    <row r="503" spans="1:3">
       <c r="A503" s="2" t="s">
         <v>489</v>
       </c>
       <c r="B503" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C503" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C503" s="2" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D503" s="3"/>
-    </row>
-    <row r="504" spans="1:4">
+    </row>
+    <row r="504" spans="1:3">
       <c r="A504" s="2" t="s">
         <v>1166</v>
       </c>
       <c r="B504" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C504" s="2" t="s">
         <v>1187</v>
       </c>
-      <c r="C504" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D504" s="3"/>
-    </row>
-    <row r="505" spans="1:4">
+    </row>
+    <row r="505" spans="1:3">
       <c r="A505" s="2" t="s">
         <v>552</v>
       </c>
       <c r="B505" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C505" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="C505" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="D505" s="3"/>
-    </row>
-    <row r="506" spans="1:4">
+    </row>
+    <row r="506" spans="1:3">
       <c r="A506" s="2" t="s">
         <v>507</v>
       </c>
       <c r="B506" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C506" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C506" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="D506" s="3"/>
-    </row>
-    <row r="507" spans="1:4">
+    </row>
+    <row r="507" spans="1:3">
       <c r="A507" s="2" t="s">
         <v>528</v>
       </c>
       <c r="B507" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C507" s="2" t="s">
         <v>1188</v>
       </c>
-      <c r="C507" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="D507" s="3"/>
-    </row>
-    <row r="508" spans="1:4">
+    </row>
+    <row r="508" spans="1:3">
       <c r="A508" s="2" t="s">
         <v>305</v>
       </c>
       <c r="B508" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C508" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C508" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D508" s="3"/>
-    </row>
-    <row r="509" spans="1:4">
+    </row>
+    <row r="509" spans="1:3">
       <c r="A509" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B509" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C509" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C509" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D509" s="3"/>
-    </row>
-    <row r="510" spans="1:4">
+    </row>
+    <row r="510" spans="1:3">
       <c r="A510" s="2" t="s">
         <v>935</v>
       </c>
       <c r="B510" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C510" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="C510" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="D510" s="3"/>
-    </row>
-    <row r="511" spans="1:4">
+    </row>
+    <row r="511" spans="1:3">
       <c r="A511" s="2" t="s">
         <v>1108</v>
       </c>
       <c r="B511" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C511" s="2" t="s">
         <v>1110</v>
       </c>
-      <c r="C511" s="2" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D511" s="3"/>
-    </row>
-    <row r="512" spans="1:4">
+    </row>
+    <row r="512" spans="1:3">
       <c r="A512" s="2" t="s">
         <v>1080</v>
       </c>
       <c r="B512" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C512" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="C512" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D512" s="3"/>
-    </row>
-    <row r="513" spans="1:4">
+    </row>
+    <row r="513" spans="1:3">
       <c r="A513" s="2" t="s">
         <v>1191</v>
       </c>
@@ -10455,105 +10350,96 @@
       <c r="C513" s="2" t="s">
         <v>1193</v>
       </c>
-      <c r="D513" s="3"/>
-    </row>
-    <row r="514" spans="1:4">
+    </row>
+    <row r="514" spans="1:3">
       <c r="A514" s="2" t="s">
         <v>384</v>
       </c>
       <c r="B514" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C514" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C514" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D514" s="3"/>
-    </row>
-    <row r="515" spans="1:4">
+    </row>
+    <row r="515" spans="1:3">
       <c r="A515" s="2" t="s">
         <v>495</v>
       </c>
       <c r="B515" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C515" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C515" s="2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D515" s="3"/>
-    </row>
-    <row r="516" spans="1:4">
+    </row>
+    <row r="516" spans="1:3">
       <c r="A516" s="2" t="s">
         <v>859</v>
       </c>
       <c r="B516" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C516" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="C516" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="D516" s="3"/>
-    </row>
-    <row r="517" spans="1:4">
+    </row>
+    <row r="517" spans="1:3">
       <c r="A517" s="2" t="s">
         <v>874</v>
       </c>
       <c r="B517" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="C517" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="C517" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D517" s="3"/>
-    </row>
-    <row r="518" spans="1:4">
+    </row>
+    <row r="518" spans="1:3">
       <c r="A518" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B518" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C518" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C518" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D518" s="3"/>
-    </row>
-    <row r="519" spans="1:4">
+    </row>
+    <row r="519" spans="1:3">
       <c r="A519" s="2" t="s">
         <v>814</v>
       </c>
       <c r="B519" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C519" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="C519" s="2" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D519" s="3"/>
-    </row>
-    <row r="520" spans="1:4">
+    </row>
+    <row r="520" spans="1:3">
       <c r="A520" s="2" t="s">
         <v>1035</v>
       </c>
       <c r="B520" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C520" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="C520" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D520" s="3"/>
-    </row>
-    <row r="521" spans="1:4">
+    </row>
+    <row r="521" spans="1:3">
       <c r="A521" s="2" t="s">
         <v>639</v>
       </c>
       <c r="B521" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C521" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="C521" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="D521" s="3"/>
-    </row>
-    <row r="522" spans="1:4">
+    </row>
+    <row r="522" spans="1:3">
       <c r="A522" s="2" t="s">
         <v>299</v>
       </c>
@@ -10563,65 +10449,60 @@
       <c r="C522" s="2" t="s">
         <v>1197</v>
       </c>
-      <c r="D522" s="3"/>
-    </row>
-    <row r="523" spans="1:4">
+    </row>
+    <row r="523" spans="1:3">
       <c r="A523" s="2" t="s">
         <v>688</v>
       </c>
       <c r="B523" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C523" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="C523" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="D523" s="3"/>
-    </row>
-    <row r="524" spans="1:4">
+    </row>
+    <row r="524" spans="1:3">
       <c r="A524" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B524" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C524" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C524" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D524" s="3"/>
-    </row>
-    <row r="525" spans="1:4">
+    </row>
+    <row r="525" spans="1:3">
       <c r="A525" s="2" t="s">
         <v>778</v>
       </c>
       <c r="B525" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C525" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="C525" s="2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D525" s="3"/>
-    </row>
-    <row r="526" spans="1:4">
+    </row>
+    <row r="526" spans="1:3">
       <c r="A526" s="2" t="s">
         <v>375</v>
       </c>
       <c r="B526" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C526" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C526" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D526" s="3"/>
     </row>
     <row r="527" spans="1:3">
       <c r="A527" s="2" t="s">
         <v>1057</v>
       </c>
       <c r="B527" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C527" s="2" t="s">
         <v>1199</v>
-      </c>
-      <c r="C527" s="2" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -10629,10 +10510,10 @@
         <v>1011</v>
       </c>
       <c r="B528" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C528" s="2" t="s">
         <v>1013</v>
-      </c>
-      <c r="C528" s="2" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -10640,10 +10521,10 @@
         <v>108</v>
       </c>
       <c r="B529" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C529" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C529" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -10651,10 +10532,10 @@
         <v>670</v>
       </c>
       <c r="B530" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C530" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="C530" s="2" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -10662,10 +10543,10 @@
         <v>453</v>
       </c>
       <c r="B531" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C531" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="C531" s="2" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -10673,10 +10554,10 @@
         <v>802</v>
       </c>
       <c r="B532" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C532" s="2" t="s">
         <v>804</v>
-      </c>
-      <c r="C532" s="2" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -10684,10 +10565,10 @@
         <v>959</v>
       </c>
       <c r="B533" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="C533" s="2" t="s">
         <v>961</v>
-      </c>
-      <c r="C533" s="2" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -10695,10 +10576,10 @@
         <v>465</v>
       </c>
       <c r="B534" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C534" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="C534" s="2" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -10706,10 +10587,10 @@
         <v>281</v>
       </c>
       <c r="B535" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C535" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="C535" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -10717,10 +10598,10 @@
         <v>429</v>
       </c>
       <c r="B536" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C536" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="C536" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -10739,10 +10620,10 @@
         <v>549</v>
       </c>
       <c r="B538" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C538" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="C538" s="2" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -10750,10 +10631,10 @@
         <v>766</v>
       </c>
       <c r="B539" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C539" s="2" t="s">
         <v>768</v>
-      </c>
-      <c r="C539" s="2" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -10761,10 +10642,10 @@
         <v>841</v>
       </c>
       <c r="B540" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C540" s="2" t="s">
         <v>843</v>
-      </c>
-      <c r="C540" s="2" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -10783,10 +10664,10 @@
         <v>399</v>
       </c>
       <c r="B542" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C542" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="C542" s="2" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -10794,10 +10675,10 @@
         <v>1004</v>
       </c>
       <c r="B543" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C543" s="2" t="s">
         <v>1006</v>
-      </c>
-      <c r="C543" s="2" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -10805,10 +10686,10 @@
         <v>339</v>
       </c>
       <c r="B544" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C544" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="C544" s="2" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -10816,10 +10697,10 @@
         <v>1026</v>
       </c>
       <c r="B545" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C545" s="2" t="s">
         <v>1028</v>
-      </c>
-      <c r="C545" s="2" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -10827,10 +10708,10 @@
         <v>48</v>
       </c>
       <c r="B546" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C546" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C546" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -10838,10 +10719,10 @@
         <v>1017</v>
       </c>
       <c r="B547" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C547" s="2" t="s">
         <v>1019</v>
-      </c>
-      <c r="C547" s="2" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -10849,10 +10730,10 @@
         <v>320</v>
       </c>
       <c r="B548" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C548" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="C548" s="2" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -10860,10 +10741,10 @@
         <v>1123</v>
       </c>
       <c r="B549" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C549" s="2" t="s">
         <v>1125</v>
-      </c>
-      <c r="C549" s="2" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -10871,10 +10752,10 @@
         <v>423</v>
       </c>
       <c r="B550" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C550" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="C550" s="2" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -10882,10 +10763,10 @@
         <v>558</v>
       </c>
       <c r="B551" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C551" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="C551" s="2" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -10893,10 +10774,10 @@
         <v>694</v>
       </c>
       <c r="B552" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C552" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="C552" s="2" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -10904,10 +10785,10 @@
         <v>390</v>
       </c>
       <c r="B553" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C553" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="C553" s="2" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -10915,10 +10796,10 @@
         <v>140</v>
       </c>
       <c r="B554" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C554" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C554" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -10926,10 +10807,10 @@
         <v>118</v>
       </c>
       <c r="B555" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C555" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C555" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -10937,10 +10818,10 @@
         <v>161</v>
       </c>
       <c r="B556" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C556" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C556" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -10948,10 +10829,10 @@
         <v>257</v>
       </c>
       <c r="B557" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C557" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="C557" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -10959,10 +10840,10 @@
         <v>54</v>
       </c>
       <c r="B558" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C558" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C558" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -10981,10 +10862,10 @@
         <v>914</v>
       </c>
       <c r="B560" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="C560" s="2" t="s">
         <v>916</v>
-      </c>
-      <c r="C560" s="2" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -10992,10 +10873,10 @@
         <v>504</v>
       </c>
       <c r="B561" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C561" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="C561" s="2" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -11003,10 +10884,10 @@
         <v>263</v>
       </c>
       <c r="B562" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C562" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="C562" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -11014,10 +10895,10 @@
         <v>676</v>
       </c>
       <c r="B563" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C563" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="C563" s="2" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -11025,10 +10906,10 @@
         <v>99</v>
       </c>
       <c r="B564" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C564" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C564" s="2" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -11047,10 +10928,10 @@
         <v>567</v>
       </c>
       <c r="B566" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C566" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="C566" s="2" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -11058,10 +10939,10 @@
         <v>477</v>
       </c>
       <c r="B567" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C567" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="C567" s="2" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -11069,10 +10950,10 @@
         <v>793</v>
       </c>
       <c r="B568" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C568" s="2" t="s">
         <v>795</v>
-      </c>
-      <c r="C568" s="2" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -11080,10 +10961,10 @@
         <v>293</v>
       </c>
       <c r="B569" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C569" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C569" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -11091,10 +10972,10 @@
         <v>950</v>
       </c>
       <c r="B570" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C570" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C570" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -11102,10 +10983,10 @@
         <v>278</v>
       </c>
       <c r="B571" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C571" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="C571" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -11124,10 +11005,10 @@
         <v>989</v>
       </c>
       <c r="B573" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C573" s="2" t="s">
         <v>991</v>
-      </c>
-      <c r="C573" s="2" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -11135,10 +11016,10 @@
         <v>36</v>
       </c>
       <c r="B574" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C574" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C574" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -11146,15 +11027,356 @@
         <v>302</v>
       </c>
       <c r="B575" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C575" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C575" s="2" t="s">
-        <v>1120</v>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576" t="s">
+        <v>923</v>
+      </c>
+      <c r="B576" t="s">
+        <v>924</v>
+      </c>
+      <c r="C576" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="A577" t="s">
+        <v>926</v>
+      </c>
+      <c r="B577" t="s">
+        <v>927</v>
+      </c>
+      <c r="C577" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578" t="s">
+        <v>929</v>
+      </c>
+      <c r="B578" t="s">
+        <v>930</v>
+      </c>
+      <c r="C578" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="A579" t="s">
+        <v>932</v>
+      </c>
+      <c r="B579" t="s">
+        <v>933</v>
+      </c>
+      <c r="C579" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3">
+      <c r="A580" t="s">
+        <v>935</v>
+      </c>
+      <c r="B580" t="s">
+        <v>936</v>
+      </c>
+      <c r="C580" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581" t="s">
+        <v>938</v>
+      </c>
+      <c r="B581" t="s">
+        <v>939</v>
+      </c>
+      <c r="C581" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3">
+      <c r="A582" t="s">
+        <v>941</v>
+      </c>
+      <c r="B582" t="s">
+        <v>942</v>
+      </c>
+      <c r="C582" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583" t="s">
+        <v>944</v>
+      </c>
+      <c r="B583" t="s">
+        <v>945</v>
+      </c>
+      <c r="C583" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584" t="s">
+        <v>947</v>
+      </c>
+      <c r="B584" t="s">
+        <v>948</v>
+      </c>
+      <c r="C584" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585" t="s">
+        <v>950</v>
+      </c>
+      <c r="B585" t="s">
+        <v>951</v>
+      </c>
+      <c r="C585" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="A586" t="s">
+        <v>953</v>
+      </c>
+      <c r="B586" t="s">
+        <v>954</v>
+      </c>
+      <c r="C586" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587" t="s">
+        <v>69</v>
+      </c>
+      <c r="B587" t="s">
+        <v>70</v>
+      </c>
+      <c r="C587" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588" t="s">
+        <v>72</v>
+      </c>
+      <c r="B588" t="s">
+        <v>73</v>
+      </c>
+      <c r="C588" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589" t="s">
+        <v>75</v>
+      </c>
+      <c r="B589" t="s">
+        <v>76</v>
+      </c>
+      <c r="C589" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" t="s">
+        <v>78</v>
+      </c>
+      <c r="B590" t="s">
+        <v>79</v>
+      </c>
+      <c r="C590" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591" t="s">
+        <v>81</v>
+      </c>
+      <c r="B591" t="s">
+        <v>82</v>
+      </c>
+      <c r="C591" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592" t="s">
+        <v>84</v>
+      </c>
+      <c r="B592" t="s">
+        <v>85</v>
+      </c>
+      <c r="C592" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593" t="s">
+        <v>87</v>
+      </c>
+      <c r="B593" t="s">
+        <v>88</v>
+      </c>
+      <c r="C593" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594" t="s">
+        <v>90</v>
+      </c>
+      <c r="B594" t="s">
+        <v>91</v>
+      </c>
+      <c r="C594" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595" t="s">
+        <v>883</v>
+      </c>
+      <c r="B595" t="s">
+        <v>884</v>
+      </c>
+      <c r="C595" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="A596" t="s">
+        <v>886</v>
+      </c>
+      <c r="B596" t="s">
+        <v>887</v>
+      </c>
+      <c r="C596" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="A597" t="s">
+        <v>889</v>
+      </c>
+      <c r="B597" t="s">
+        <v>890</v>
+      </c>
+      <c r="C597" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="A598" t="s">
+        <v>892</v>
+      </c>
+      <c r="B598" t="s">
+        <v>893</v>
+      </c>
+      <c r="C598" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="A599" t="s">
+        <v>895</v>
+      </c>
+      <c r="B599" t="s">
+        <v>896</v>
+      </c>
+      <c r="C599" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="A600" t="s">
+        <v>898</v>
+      </c>
+      <c r="B600" t="s">
+        <v>899</v>
+      </c>
+      <c r="C600" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="A601" t="s">
+        <v>901</v>
+      </c>
+      <c r="B601" t="s">
+        <v>902</v>
+      </c>
+      <c r="C601" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="A602" t="s">
+        <v>904</v>
+      </c>
+      <c r="B602" t="s">
+        <v>905</v>
+      </c>
+      <c r="C602" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="A603" t="s">
+        <v>907</v>
+      </c>
+      <c r="B603" t="s">
+        <v>13</v>
+      </c>
+      <c r="C603" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3">
+      <c r="A604" t="s">
+        <v>908</v>
+      </c>
+      <c r="B604" t="s">
+        <v>909</v>
+      </c>
+      <c r="C604" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3">
+      <c r="A605" t="s">
+        <v>911</v>
+      </c>
+      <c r="B605" t="s">
+        <v>912</v>
+      </c>
+      <c r="C605" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3">
+      <c r="A606" t="s">
+        <v>914</v>
+      </c>
+      <c r="B606" t="s">
+        <v>915</v>
+      </c>
+      <c r="C606" t="s">
+        <v>916</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B428" r:id="rId1" display="https://www.linkedin.com/in/johnfreddyvega"/>
+    <hyperlink ref="C428" r:id="rId1" display="https://www.linkedin.com/in/johnfreddyvega"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
